--- a/analise/RelatorioQualidadeAguasSuperficiais_3anos.xlsx
+++ b/analise/RelatorioQualidadeAguasSuperficiais_3anos.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\insper\5semestre\QTA\repositorio_projetos\quimica\projeto3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\insper\5semestre\QTA\projeto3_qta\analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21301" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21553" uniqueCount="578">
   <si>
     <t>Período DE</t>
   </si>
@@ -2077,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z852"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B427" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M239" sqref="M239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -67721,4 +67722,817 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+      <c r="M20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>